--- a/output/StructureDefinition-NatlDirEx-PractitionerRole.xlsx
+++ b/output/StructureDefinition-NatlDirEx-PractitionerRole.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$100</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3467" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3502" uniqueCount="471">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-07T13:26:31-05:00</t>
+    <t>2022-03-17T11:48:49-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -116,7 +116,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDir-PractitionerRole</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-PractitionerRole</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -609,10 +609,24 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/rating}
+</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>newpatients</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/newpatients}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/newpatients}
 </t>
   </si>
   <si>
@@ -624,10 +638,6 @@
               This provides needed flexibility for specifying whether a provider accepts new patients by location and network.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}new-patients-characteristics:If no new patients are accepted, no characteristics are allowed {extension('acceptingPatients').valueCodeableConcept.coding.exists(code = 'no') implies extension('characteristics').empty()}</t>
   </si>
@@ -635,20 +645,20 @@
     <t>network-reference</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/network-reference}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/network-reference}
 </t>
   </si>
   <si>
     <t>NetworkReference</t>
   </si>
   <si>
-    <t>A reference to the healthcare provider insurance networks (NatlDir-Network) the practitioner participates in through their role</t>
+    <t>A reference to the healthcare provider insurance networks (NatlDirEndpointQry-Network) the practitioner participates in through their role</t>
   </si>
   <si>
     <t>qualification</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/qualification}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/qualification}
 </t>
   </si>
   <si>
@@ -714,13 +724,13 @@
 </t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/IndividualSpecialtyAndDegreeLicenseCertificateVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/IndividualSpecialtyAndDegreeLicenseCertificateVS</t>
   </si>
   <si>
     <t>issuer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
 </t>
   </si>
   <si>
@@ -740,7 +750,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/QualificationStatusVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/QualificationStatusVS</t>
   </si>
   <si>
     <t>period</t>
@@ -754,7 +764,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Location)</t>
+Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Location)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/core/ValueSet/us-core-usps-state</t>
@@ -763,7 +773,7 @@
     <t>PractitionerRole.extension.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/qualification</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/qualification</t>
   </si>
   <si>
     <t>PractitionerRole.extension.value[x]</t>
@@ -1037,7 +1047,7 @@
     <t>PractitionerRole.practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Practitioner)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Practitioner)
 </t>
   </si>
   <si>
@@ -1077,7 +1087,7 @@
     <t>Need to know what authority the practitioner has - what can they do?</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/PractitionerRoleVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/PractitionerRoleVS</t>
   </si>
   <si>
     <t>PRD-1 / STF-18  / PRA-3  / PRT-4  / ROL-3 / ORC-12 / OBR-16 / PV1-7 / PV1-8 / PV1-9 / PV1-17</t>
@@ -1095,7 +1105,7 @@
     <t>Specific specialty of the practitioner.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/IndividualAndGroupSpecialtiesVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/IndividualAndGroupSpecialtiesVS</t>
   </si>
   <si>
     <t>PRA-5</t>
@@ -1110,7 +1120,7 @@
     <t>PractitionerRole.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Location)
 </t>
   </si>
   <si>
@@ -1132,7 +1142,7 @@
     <t>PractitionerRole.healthcareService</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-HealthcareService)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-HealthcareService)
 </t>
   </si>
   <si>
@@ -1176,7 +1186,7 @@
     <t>contactpoint-availabletime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/contactpoint-availabletime}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/contactpoint-availabletime}
 </t>
   </si>
   <si>
@@ -1189,14 +1199,14 @@
     <t>via-intermediary</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/via-intermediary}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/via-intermediary}
 </t>
   </si>
   <si>
     <t>Via Intermediary</t>
   </si>
   <si>
-    <t>A reference to an alternative point of contact (NatlDir-PractitionerRole, NatlDir-Organization, NatlDir-OrganizationAffiliation, or NatlDir-Location) for this organization</t>
+    <t>A reference to an alternative point of contact (NatlDirEndpointQry-PractitionerRole, NatlDirEndpointQry-Organization, NatlDirEndpointQry-OrganizationAffiliation, or NatlDirEndpointQry-Location) for this organization</t>
   </si>
   <si>
     <t>PractitionerRole.telecom.system</t>
@@ -1460,7 +1470,7 @@
     <t>PractitionerRole.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Endpoint)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Endpoint)
 </t>
   </si>
   <si>
@@ -1792,7 +1802,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM99"/>
+  <dimension ref="A1:AM100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1825,7 +1835,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="96.54296875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="93.23828125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -3760,7 +3770,7 @@
         <v>192</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3820,10 +3830,10 @@
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>195</v>
+        <v>114</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>76</v>
@@ -3843,7 +3853,7 @@
         <v>186</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>76</v>
@@ -3853,7 +3863,7 @@
         <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>87</v>
@@ -3865,13 +3875,13 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3931,10 +3941,10 @@
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>114</v>
+        <v>198</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>76</v>
@@ -3954,7 +3964,7 @@
         <v>186</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>76</v>
@@ -3964,7 +3974,7 @@
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>87</v>
@@ -3976,13 +3986,13 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4042,7 +4052,7 @@
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>114</v>
@@ -4060,11 +4070,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="C21" t="s" s="2">
         <v>76</v>
       </c>
@@ -4073,10 +4085,10 @@
         <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>76</v>
@@ -4085,13 +4097,13 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>204</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>100</v>
+        <v>205</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>101</v>
+        <v>206</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4142,25 +4154,25 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
@@ -4171,7 +4183,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4179,10 +4191,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>206</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>76</v>
@@ -4194,13 +4206,13 @@
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4239,37 +4251,37 @@
         <v>76</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
@@ -4278,25 +4290,23 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>76</v>
@@ -4350,16 +4360,16 @@
         <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>113</v>
@@ -4389,11 +4399,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="C24" t="s" s="2">
         <v>76</v>
       </c>
@@ -4402,10 +4414,10 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
@@ -4414,13 +4426,13 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4471,25 +4483,25 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -4500,7 +4512,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4511,7 +4523,7 @@
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>76</v>
@@ -4523,13 +4535,13 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4568,37 +4580,37 @@
         <v>76</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4609,7 +4621,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4617,10 +4629,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>76</v>
@@ -4632,24 +4644,22 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>207</v>
+        <v>76</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>76</v>
@@ -4679,37 +4689,37 @@
         <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>214</v>
+        <v>113</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4720,7 +4730,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4743,22 +4753,24 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K27" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>76</v>
@@ -4800,10 +4812,10 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>86</v>
@@ -4812,7 +4824,7 @@
         <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>76</v>
@@ -4827,13 +4839,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>76</v>
       </c>
@@ -4845,7 +4855,7 @@
         <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -4854,13 +4864,13 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>106</v>
+        <v>219</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4911,25 +4921,25 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>113</v>
+        <v>222</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
@@ -4938,23 +4948,25 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="C29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>76</v>
@@ -4963,13 +4975,13 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5020,25 +5032,25 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
@@ -5049,7 +5061,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5060,7 +5072,7 @@
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>76</v>
@@ -5072,13 +5084,13 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5117,37 +5129,37 @@
         <v>76</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -5158,7 +5170,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5166,10 +5178,10 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>76</v>
@@ -5181,24 +5193,22 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>220</v>
+        <v>76</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>76</v>
@@ -5228,37 +5238,37 @@
         <v>76</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>214</v>
+        <v>113</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -5269,7 +5279,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5292,22 +5302,24 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>221</v>
+        <v>128</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>76</v>
+        <v>223</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>76</v>
@@ -5325,11 +5337,13 @@
         <v>76</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="X32" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y32" t="s" s="2">
-        <v>222</v>
+        <v>76</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>76</v>
@@ -5347,10 +5361,10 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>86</v>
@@ -5359,7 +5373,7 @@
         <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>76</v>
@@ -5374,25 +5388,23 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>76</v>
@@ -5401,13 +5413,13 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>106</v>
+        <v>224</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5434,13 +5446,11 @@
         <v>76</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>76</v>
@@ -5458,25 +5468,25 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>113</v>
+        <v>222</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -5485,11 +5495,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="C34" t="s" s="2">
         <v>76</v>
       </c>
@@ -5501,7 +5513,7 @@
         <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
@@ -5510,13 +5522,13 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5567,25 +5579,25 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
@@ -5596,7 +5608,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5607,7 +5619,7 @@
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>76</v>
@@ -5619,13 +5631,13 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5664,37 +5676,37 @@
         <v>76</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
@@ -5705,7 +5717,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5713,10 +5725,10 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>76</v>
@@ -5728,24 +5740,22 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>223</v>
+        <v>76</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>76</v>
@@ -5775,37 +5785,37 @@
         <v>76</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>214</v>
+        <v>113</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
@@ -5816,7 +5826,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5839,22 +5849,24 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>224</v>
+        <v>128</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>76</v>
@@ -5896,10 +5908,10 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>86</v>
@@ -5908,7 +5920,7 @@
         <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>76</v>
@@ -5923,13 +5935,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
         <v>76</v>
       </c>
@@ -5941,7 +5951,7 @@
         <v>86</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
@@ -5950,13 +5960,13 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>106</v>
+        <v>227</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6007,25 +6017,25 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>113</v>
+        <v>222</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
@@ -6034,23 +6044,25 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="B39" s="2"/>
+      <c r="B39" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="C39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
@@ -6059,13 +6071,13 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6116,25 +6128,25 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
@@ -6145,7 +6157,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6156,7 +6168,7 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>76</v>
@@ -6168,13 +6180,13 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6213,37 +6225,37 @@
         <v>76</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -6254,7 +6266,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6262,10 +6274,10 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>76</v>
@@ -6277,24 +6289,22 @@
         <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="R41" t="s" s="2">
         <v>76</v>
@@ -6324,37 +6334,37 @@
         <v>76</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>214</v>
+        <v>113</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
@@ -6365,7 +6375,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6388,22 +6398,24 @@
         <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="R42" t="s" s="2">
         <v>76</v>
@@ -6433,20 +6445,22 @@
         <v>76</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AB42" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>227</v>
+        <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>86</v>
@@ -6455,7 +6469,7 @@
         <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>76</v>
@@ -6472,11 +6486,9 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
         <v>76</v>
       </c>
@@ -6500,10 +6512,10 @@
         <v>162</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6512,7 +6524,7 @@
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>76</v>
@@ -6530,29 +6542,29 @@
         <v>76</v>
       </c>
       <c r="W43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA43" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="X43" s="2"/>
-      <c r="Y43" t="s" s="2">
+      <c r="AB43" s="2"/>
+      <c r="AC43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD43" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AE43" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6579,9 +6591,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>231</v>
@@ -6591,13 +6603,13 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>76</v>
@@ -6606,13 +6618,13 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6621,7 +6633,7 @@
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="R44" t="s" s="2">
         <v>76</v>
@@ -6639,13 +6651,11 @@
         <v>76</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="X44" s="2"/>
       <c r="Y44" t="s" s="2">
-        <v>76</v>
+        <v>233</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>76</v>
@@ -6663,25 +6673,25 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>113</v>
+        <v>222</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
@@ -6690,11 +6700,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="B45" s="2"/>
+      <c r="B45" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="C45" t="s" s="2">
         <v>76</v>
       </c>
@@ -6706,7 +6718,7 @@
         <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>76</v>
@@ -6715,13 +6727,13 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6772,25 +6784,25 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
@@ -6801,7 +6813,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6812,7 +6824,7 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>76</v>
@@ -6824,13 +6836,13 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6869,37 +6881,37 @@
         <v>76</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>76</v>
@@ -6910,7 +6922,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6918,10 +6930,10 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>76</v>
@@ -6933,24 +6945,22 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>231</v>
+        <v>76</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>76</v>
@@ -6980,37 +6990,37 @@
         <v>76</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>214</v>
+        <v>113</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
@@ -7021,7 +7031,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7044,22 +7054,24 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>232</v>
+        <v>128</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>76</v>
+        <v>234</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>76</v>
@@ -7101,10 +7113,10 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>86</v>
@@ -7113,7 +7125,7 @@
         <v>76</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>76</v>
@@ -7128,25 +7140,23 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>76</v>
@@ -7155,13 +7165,13 @@
         <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>106</v>
+        <v>235</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7212,25 +7222,25 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>113</v>
+        <v>222</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
@@ -7239,11 +7249,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="B50" s="2"/>
+      <c r="B50" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="C50" t="s" s="2">
         <v>76</v>
       </c>
@@ -7252,10 +7264,10 @@
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>76</v>
@@ -7264,13 +7276,13 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7321,25 +7333,25 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
@@ -7350,7 +7362,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7361,7 +7373,7 @@
         <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>76</v>
@@ -7373,13 +7385,13 @@
         <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7418,37 +7430,37 @@
         <v>76</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
@@ -7459,7 +7471,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7467,10 +7479,10 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>76</v>
@@ -7482,24 +7494,22 @@
         <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>233</v>
+        <v>76</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>76</v>
@@ -7529,37 +7539,37 @@
         <v>76</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>214</v>
+        <v>113</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -7570,7 +7580,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7593,22 +7603,24 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>234</v>
+        <v>128</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>76</v>
+        <v>236</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>76</v>
@@ -7626,11 +7638,13 @@
         <v>76</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="X53" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y53" t="s" s="2">
-        <v>235</v>
+        <v>76</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>76</v>
@@ -7648,10 +7662,10 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>86</v>
@@ -7660,7 +7674,7 @@
         <v>76</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>76</v>
@@ -7677,7 +7691,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7700,24 +7714,22 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>128</v>
+        <v>237</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>237</v>
+        <v>76</v>
       </c>
       <c r="R54" t="s" s="2">
         <v>76</v>
@@ -7735,13 +7747,11 @@
         <v>76</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="X54" s="2"/>
       <c r="Y54" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>76</v>
@@ -7759,10 +7769,10 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>86</v>
@@ -7771,7 +7781,7 @@
         <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>76</v>
@@ -7788,7 +7798,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7796,10 +7806,10 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>76</v>
@@ -7811,22 +7821,24 @@
         <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>239</v>
+        <v>128</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>76</v>
+        <v>240</v>
       </c>
       <c r="R55" t="s" s="2">
         <v>76</v>
@@ -7868,10 +7880,10 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>86</v>
@@ -7880,7 +7892,7 @@
         <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>76</v>
@@ -7897,43 +7909,39 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>106</v>
+        <v>242</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>76</v>
       </c>
@@ -7981,19 +7989,19 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>76</v>
@@ -8010,11 +8018,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8027,23 +8035,25 @@
         <v>76</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>216</v>
+        <v>106</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>76</v>
@@ -8092,7 +8102,7 @@
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8104,24 +8114,24 @@
         <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>251</v>
+        <v>76</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>252</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8132,7 +8142,7 @@
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>76</v>
@@ -8141,19 +8151,21 @@
         <v>76</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>88</v>
+        <v>219</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+      <c r="N58" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>76</v>
       </c>
@@ -8201,47 +8213,47 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>76</v>
+        <v>252</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>103</v>
+        <v>253</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>76</v>
+        <v>254</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>76</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>76</v>
@@ -8253,17 +8265,15 @@
         <v>76</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>76</v>
@@ -8300,31 +8310,31 @@
         <v>76</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>76</v>
@@ -8341,43 +8351,41 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>256</v>
+        <v>107</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>257</v>
+        <v>108</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>76</v>
       </c>
@@ -8401,49 +8409,49 @@
         <v>76</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>229</v>
+        <v>76</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>260</v>
+        <v>76</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>261</v>
+        <v>76</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AC60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>262</v>
+        <v>113</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>263</v>
+        <v>103</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>76</v>
@@ -8452,9 +8460,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8468,28 +8476,28 @@
         <v>86</v>
       </c>
       <c r="G61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H61" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>221</v>
+        <v>162</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>76</v>
@@ -8514,13 +8522,13 @@
         <v>76</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>144</v>
+        <v>232</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>76</v>
@@ -8538,7 +8546,7 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8553,10 +8561,10 @@
         <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>272</v>
+        <v>185</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>76</v>
@@ -8565,9 +8573,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8581,7 +8589,7 @@
         <v>86</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>76</v>
@@ -8590,19 +8598,19 @@
         <v>87</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>128</v>
+        <v>224</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>76</v>
@@ -8615,7 +8623,7 @@
         <v>76</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>76</v>
@@ -8627,13 +8635,13 @@
         <v>76</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>76</v>
+        <v>272</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>76</v>
+        <v>273</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>76</v>
@@ -8651,7 +8659,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -8666,21 +8674,21 @@
         <v>98</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>282</v>
+        <v>76</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8694,7 +8702,7 @@
         <v>86</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>76</v>
@@ -8703,18 +8711,20 @@
         <v>87</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>76</v>
       </c>
@@ -8726,7 +8736,7 @@
         <v>76</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>76</v>
@@ -8762,7 +8772,7 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -8777,21 +8787,21 @@
         <v>98</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8805,7 +8815,7 @@
         <v>86</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>76</v>
@@ -8814,15 +8824,17 @@
         <v>87</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>232</v>
+        <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>76</v>
@@ -8835,7 +8847,7 @@
         <v>76</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>76</v>
+        <v>290</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>76</v>
@@ -8871,7 +8883,7 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -8886,13 +8898,13 @@
         <v>98</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>76</v>
@@ -8900,7 +8912,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8923,17 +8935,15 @@
         <v>87</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>300</v>
+        <v>235</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>76</v>
@@ -8982,7 +8992,7 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -8997,21 +9007,21 @@
         <v>98</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9019,13 +9029,13 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>76</v>
@@ -9034,26 +9044,22 @@
         <v>87</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="P66" t="s" s="2">
-        <v>314</v>
-      </c>
+      <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
         <v>76</v>
       </c>
@@ -9097,7 +9103,7 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9112,21 +9118,21 @@
         <v>98</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>76</v>
+        <v>310</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>317</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9134,7 +9140,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>86</v>
@@ -9149,22 +9155,26 @@
         <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>232</v>
+        <v>312</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="N67" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="P67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="Q67" t="s" s="2">
         <v>76</v>
       </c>
@@ -9208,7 +9218,7 @@
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9223,21 +9233,21 @@
         <v>98</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>324</v>
+        <v>76</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9260,16 +9270,18 @@
         <v>87</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>327</v>
+        <v>235</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>76</v>
       </c>
@@ -9317,7 +9329,7 @@
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9332,21 +9344,21 @@
         <v>98</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>76</v>
+        <v>325</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>76</v>
+        <v>327</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>76</v>
+        <v>328</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9369,13 +9381,13 @@
         <v>87</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>224</v>
+        <v>330</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9426,7 +9438,7 @@
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -9444,7 +9456,7 @@
         <v>76</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>76</v>
@@ -9455,7 +9467,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9466,7 +9478,7 @@
         <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>87</v>
@@ -9478,20 +9490,16 @@
         <v>87</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="L70" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>339</v>
-      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>76</v>
       </c>
@@ -9515,11 +9523,13 @@
         <v>76</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="X70" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y70" t="s" s="2">
-        <v>340</v>
+        <v>76</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>76</v>
@@ -9537,13 +9547,13 @@
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>76</v>
@@ -9552,13 +9562,13 @@
         <v>98</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>341</v>
+        <v>76</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>324</v>
+        <v>76</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>76</v>
@@ -9566,7 +9576,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9589,16 +9599,20 @@
         <v>87</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>76</v>
       </c>
@@ -9622,11 +9636,11 @@
         <v>76</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="X71" s="2"/>
       <c r="Y71" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>76</v>
@@ -9644,7 +9658,7 @@
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -9659,13 +9673,13 @@
         <v>98</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>76</v>
@@ -9673,7 +9687,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9696,13 +9710,13 @@
         <v>87</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>351</v>
+        <v>224</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9729,13 +9743,11 @@
         <v>76</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="X72" s="2"/>
       <c r="Y72" t="s" s="2">
-        <v>76</v>
+        <v>349</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>76</v>
@@ -9753,7 +9765,7 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -9768,21 +9780,21 @@
         <v>98</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>76</v>
+        <v>350</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>356</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9802,16 +9814,16 @@
         <v>76</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9862,7 +9874,7 @@
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -9877,21 +9889,21 @@
         <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>361</v>
+        <v>76</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>76</v>
+        <v>358</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>76</v>
+        <v>359</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9911,21 +9923,19 @@
         <v>76</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="M74" s="2"/>
-      <c r="N74" t="s" s="2">
-        <v>367</v>
-      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>76</v>
       </c>
@@ -9973,7 +9983,7 @@
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -9988,10 +9998,10 @@
         <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>76</v>
+        <v>364</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>76</v>
@@ -10000,9 +10010,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10013,28 +10023,30 @@
         <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>88</v>
+        <v>367</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>100</v>
+        <v>368</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>101</v>
+        <v>369</v>
       </c>
       <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+      <c r="N75" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>76</v>
       </c>
@@ -10082,25 +10094,25 @@
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>102</v>
+        <v>366</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>103</v>
+        <v>371</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>76</v>
@@ -10111,18 +10123,18 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>76</v>
@@ -10134,17 +10146,15 @@
         <v>76</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>76</v>
@@ -10181,31 +10191,31 @@
         <v>76</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AC76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>76</v>
@@ -10220,15 +10230,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10238,7 +10246,7 @@
         <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>76</v>
@@ -10247,15 +10255,17 @@
         <v>76</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>372</v>
+        <v>106</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>373</v>
+        <v>107</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>76</v>
@@ -10292,16 +10302,16 @@
         <v>76</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AC77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AE77" t="s" s="2">
         <v>113</v>
@@ -10322,7 +10332,7 @@
         <v>76</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>76</v>
@@ -10333,10 +10343,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>76</v>
@@ -10358,13 +10368,13 @@
         <v>76</v>
       </c>
       <c r="J78" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="K78" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="K78" t="s" s="2">
+      <c r="L78" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10444,18 +10454,20 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="B79" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="C79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>87</v>
@@ -10464,10 +10476,10 @@
         <v>76</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>162</v>
+        <v>379</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>380</v>
@@ -10500,13 +10512,13 @@
         <v>76</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>229</v>
+        <v>76</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>382</v>
+        <v>76</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>383</v>
+        <v>76</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>76</v>
@@ -10524,28 +10536,28 @@
         <v>76</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>384</v>
+        <v>113</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>385</v>
+        <v>76</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>386</v>
+        <v>76</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>387</v>
+        <v>76</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>388</v>
+        <v>76</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>76</v>
@@ -10553,7 +10565,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10576,20 +10588,16 @@
         <v>87</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>76</v>
       </c>
@@ -10613,13 +10621,13 @@
         <v>76</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>76</v>
+        <v>385</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>76</v>
+        <v>386</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>76</v>
@@ -10637,7 +10645,7 @@
         <v>76</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -10646,27 +10654,27 @@
         <v>86</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>76</v>
+        <v>388</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>291</v>
+        <v>391</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10674,34 +10682,34 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F81" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>76</v>
@@ -10726,13 +10734,13 @@
         <v>76</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>229</v>
+        <v>76</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>402</v>
+        <v>76</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>403</v>
+        <v>76</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>76</v>
@@ -10750,7 +10758,7 @@
         <v>76</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -10765,21 +10773,21 @@
         <v>98</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>407</v>
+        <v>294</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10793,27 +10801,29 @@
         <v>86</v>
       </c>
       <c r="G82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H82" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>409</v>
+        <v>162</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>76</v>
       </c>
@@ -10837,13 +10847,13 @@
         <v>76</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>76</v>
+        <v>405</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>76</v>
+        <v>406</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>76</v>
@@ -10861,7 +10871,7 @@
         <v>76</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -10876,21 +10886,21 @@
         <v>98</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>103</v>
+        <v>408</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>103</v>
+        <v>409</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>76</v>
+        <v>410</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10904,7 +10914,7 @@
         <v>86</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>76</v>
@@ -10913,15 +10923,17 @@
         <v>87</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>232</v>
+        <v>412</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="L83" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>76</v>
@@ -10970,7 +10982,7 @@
         <v>76</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -10985,21 +10997,21 @@
         <v>98</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>185</v>
+        <v>103</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>418</v>
+        <v>103</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11010,29 +11022,27 @@
         <v>77</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I84" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="J84" t="s" s="2">
-        <v>420</v>
+        <v>235</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>76</v>
@@ -11081,13 +11091,13 @@
         <v>76</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>76</v>
@@ -11096,21 +11106,21 @@
         <v>98</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>76</v>
+        <v>301</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11121,10 +11131,10 @@
         <v>77</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>76</v>
@@ -11133,15 +11143,17 @@
         <v>76</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>88</v>
+        <v>423</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>100</v>
+        <v>424</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M85" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>76</v>
@@ -11190,25 +11202,25 @@
         <v>76</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>102</v>
+        <v>422</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>103</v>
+        <v>427</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>76</v>
@@ -11219,18 +11231,18 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>76</v>
@@ -11242,17 +11254,15 @@
         <v>76</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>76</v>
@@ -11301,19 +11311,19 @@
         <v>76</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>76</v>
@@ -11330,11 +11340,11 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>428</v>
+        <v>105</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11347,26 +11357,24 @@
         <v>76</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J87" t="s" s="2">
         <v>106</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>429</v>
+        <v>107</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>430</v>
+        <v>108</v>
       </c>
       <c r="M87" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="N87" t="s" s="2">
-        <v>243</v>
-      </c>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>76</v>
       </c>
@@ -11414,7 +11422,7 @@
         <v>76</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>431</v>
+        <v>113</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -11432,7 +11440,7 @@
         <v>76</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>185</v>
+        <v>103</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>76</v>
@@ -11441,13 +11449,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>76</v>
+        <v>431</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11457,25 +11465,29 @@
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H88" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H88" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="I88" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="L88" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
+      <c r="M88" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O88" t="s" s="2">
         <v>76</v>
       </c>
@@ -11499,13 +11511,13 @@
         <v>76</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>229</v>
+        <v>76</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>435</v>
+        <v>76</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>436</v>
+        <v>76</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>76</v>
@@ -11523,7 +11535,7 @@
         <v>76</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -11535,13 +11547,13 @@
         <v>76</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>424</v>
+        <v>185</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>76</v>
@@ -11552,7 +11564,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11563,7 +11575,7 @@
         <v>77</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>87</v>
@@ -11575,13 +11587,13 @@
         <v>76</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11608,13 +11620,13 @@
         <v>76</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>76</v>
+        <v>438</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>76</v>
+        <v>439</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>76</v>
@@ -11632,13 +11644,13 @@
         <v>76</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>76</v>
@@ -11650,7 +11662,7 @@
         <v>76</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>76</v>
@@ -11684,17 +11696,15 @@
         <v>76</v>
       </c>
       <c r="J90" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="K90" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="K90" t="s" s="2">
+      <c r="L90" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L90" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>444</v>
-      </c>
+      <c r="M90" s="2"/>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>76</v>
@@ -11761,7 +11771,7 @@
         <v>76</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>76</v>
@@ -11772,7 +11782,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11795,16 +11805,16 @@
         <v>76</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -11854,7 +11864,7 @@
         <v>76</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -11872,7 +11882,7 @@
         <v>76</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>76</v>
@@ -11894,7 +11904,7 @@
         <v>77</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>87</v>
@@ -11906,7 +11916,7 @@
         <v>76</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>449</v>
@@ -11914,7 +11924,9 @@
       <c r="L92" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="M92" s="2"/>
+      <c r="M92" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>76</v>
@@ -11969,7 +11981,7 @@
         <v>77</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>76</v>
@@ -11981,7 +11993,7 @@
         <v>76</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>76</v>
@@ -11990,7 +12002,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
         <v>451</v>
       </c>
@@ -12003,10 +12015,10 @@
         <v>77</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>76</v>
@@ -12015,13 +12027,13 @@
         <v>76</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>88</v>
+        <v>423</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>100</v>
+        <v>452</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>101</v>
+        <v>453</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12072,25 +12084,25 @@
         <v>76</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>102</v>
+        <v>451</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>103</v>
+        <v>427</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>76</v>
@@ -12101,18 +12113,18 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>76</v>
@@ -12124,17 +12136,15 @@
         <v>76</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="M94" s="2"/>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>76</v>
@@ -12183,19 +12193,19 @@
         <v>76</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>76</v>
@@ -12212,11 +12222,11 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>428</v>
+        <v>105</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -12229,26 +12239,24 @@
         <v>76</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J95" t="s" s="2">
         <v>106</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>429</v>
+        <v>107</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>430</v>
+        <v>108</v>
       </c>
       <c r="M95" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="N95" t="s" s="2">
-        <v>243</v>
-      </c>
+      <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>76</v>
       </c>
@@ -12296,7 +12304,7 @@
         <v>76</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>431</v>
+        <v>113</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
@@ -12314,7 +12322,7 @@
         <v>76</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>185</v>
+        <v>103</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>76</v>
@@ -12323,41 +12331,45 @@
         <v>76</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>76</v>
+        <v>431</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H96" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H96" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="I96" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O96" t="s" s="2">
         <v>76</v>
       </c>
@@ -12405,25 +12417,25 @@
         <v>76</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>103</v>
+        <v>185</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>76</v>
@@ -12442,7 +12454,7 @@
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F97" t="s" s="2">
         <v>86</v>
@@ -12457,7 +12469,7 @@
         <v>76</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>232</v>
+        <v>88</v>
       </c>
       <c r="K97" t="s" s="2">
         <v>458</v>
@@ -12517,7 +12529,7 @@
         <v>457</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>86</v>
@@ -12532,7 +12544,7 @@
         <v>76</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>424</v>
+        <v>103</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>76</v>
@@ -12541,7 +12553,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="98" hidden="true">
+    <row r="98">
       <c r="A98" t="s" s="2">
         <v>460</v>
       </c>
@@ -12557,7 +12569,7 @@
         <v>86</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>76</v>
@@ -12566,7 +12578,7 @@
         <v>76</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>88</v>
+        <v>235</v>
       </c>
       <c r="K98" t="s" s="2">
         <v>461</v>
@@ -12641,7 +12653,7 @@
         <v>76</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>76</v>
@@ -12650,7 +12662,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
         <v>463</v>
       </c>
@@ -12663,10 +12675,10 @@
         <v>77</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>76</v>
@@ -12675,18 +12687,16 @@
         <v>76</v>
       </c>
       <c r="J99" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K99" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="K99" t="s" s="2">
+      <c r="L99" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="L99" t="s" s="2">
-        <v>466</v>
-      </c>
       <c r="M99" s="2"/>
-      <c r="N99" t="s" s="2">
-        <v>467</v>
-      </c>
+      <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>76</v>
       </c>
@@ -12740,7 +12750,7 @@
         <v>77</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>76</v>
@@ -12752,17 +12762,128 @@
         <v>76</v>
       </c>
       <c r="AK99" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M100" s="2"/>
+      <c r="N100" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK100" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AL99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM99" t="s" s="2">
+      <c r="AL100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM100" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM99">
+  <autoFilter ref="A1:AM100">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12772,7 +12893,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI98">
+  <conditionalFormatting sqref="A2:AI99">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-NatlDirEx-PractitionerRole.xlsx
+++ b/output/StructureDefinition-NatlDirEx-PractitionerRole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-17T11:48:49-04:00</t>
+    <t>2022-03-18T15:39:35-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-PractitionerRole.xlsx
+++ b/output/StructureDefinition-NatlDirEx-PractitionerRole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T15:39:35-04:00</t>
+    <t>2022-03-21T10:14:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-PractitionerRole.xlsx
+++ b/output/StructureDefinition-NatlDirEx-PractitionerRole.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$92</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3502" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3221" uniqueCount="418">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T10:14:10-04:00</t>
+    <t>2022-04-05T18:56:51-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -823,172 +823,6 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>PractitionerRole.identifier.id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier.extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier.type</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>./IdentifierType</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>./Value</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier.period</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>./StartDate and ./EndDate</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>./IdentifierIssuingAuthority</t>
-  </si>
-  <si>
     <t>PractitionerRole.active</t>
   </si>
   <si>
@@ -1264,6 +1098,9 @@
     <t>./url</t>
   </si>
   <si>
+    <t>./Value</t>
+  </si>
+  <si>
     <t>PractitionerRole.telecom.use</t>
   </si>
   <si>
@@ -1329,6 +1166,9 @@
   </si>
   <si>
     <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
   </si>
   <si>
     <t>PractitionerRole.availableTime</t>
@@ -1802,7 +1642,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM100"/>
+  <dimension ref="A1:AM92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1847,7 +1687,7 @@
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="84.140625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="99.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="75.79296875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="186.2890625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
@@ -3737,7 +3577,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>186</v>
       </c>
@@ -3755,7 +3595,7 @@
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
@@ -3848,7 +3688,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>186</v>
       </c>
@@ -3866,7 +3706,7 @@
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>76</v>
@@ -3959,7 +3799,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>186</v>
       </c>
@@ -3977,7 +3817,7 @@
         <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>76</v>
@@ -4070,7 +3910,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>186</v>
       </c>
@@ -4088,7 +3928,7 @@
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>76</v>
@@ -8129,7 +7969,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
         <v>248</v>
       </c>
@@ -8145,7 +7985,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>76</v>
@@ -8250,7 +8090,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>86</v>
@@ -8262,23 +8102,29 @@
         <v>76</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>88</v>
+        <v>257</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>100</v>
+        <v>258</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="P59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="Q59" t="s" s="2">
         <v>76</v>
       </c>
@@ -8322,7 +8168,7 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>102</v>
+        <v>256</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8334,35 +8180,35 @@
         <v>76</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>103</v>
+        <v>264</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>76</v>
+        <v>265</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>76</v>
@@ -8371,21 +8217,21 @@
         <v>76</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>106</v>
+        <v>235</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>107</v>
+        <v>267</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>76</v>
       </c>
@@ -8421,48 +8267,48 @@
         <v>76</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AC60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>113</v>
+        <v>266</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>76</v>
+        <v>270</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>103</v>
+        <v>271</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>76</v>
+        <v>272</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>76</v>
+        <v>273</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8470,35 +8316,31 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>162</v>
+        <v>275</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>76</v>
       </c>
@@ -8522,13 +8364,13 @@
         <v>76</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>232</v>
+        <v>76</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>263</v>
+        <v>76</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>264</v>
+        <v>76</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>76</v>
@@ -8546,7 +8388,7 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8561,10 +8403,10 @@
         <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>76</v>
@@ -8575,7 +8417,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8583,7 +8425,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>86</v>
@@ -8598,20 +8440,16 @@
         <v>87</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>76</v>
       </c>
@@ -8635,13 +8473,13 @@
         <v>76</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>272</v>
+        <v>76</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>273</v>
+        <v>76</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>76</v>
@@ -8659,7 +8497,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -8674,10 +8512,10 @@
         <v>98</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>275</v>
+        <v>76</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>76</v>
@@ -8686,9 +8524,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8699,10 +8537,10 @@
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>76</v>
@@ -8711,19 +8549,19 @@
         <v>87</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>128</v>
+        <v>224</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>76</v>
@@ -8736,7 +8574,7 @@
         <v>76</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>281</v>
+        <v>76</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>76</v>
@@ -8748,13 +8586,11 @@
         <v>76</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="X63" s="2"/>
       <c r="Y63" t="s" s="2">
-        <v>76</v>
+        <v>288</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>76</v>
@@ -8772,13 +8608,13 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>76</v>
@@ -8787,13 +8623,13 @@
         <v>98</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>76</v>
@@ -8801,7 +8637,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8812,7 +8648,7 @@
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>87</v>
@@ -8824,17 +8660,15 @@
         <v>87</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>88</v>
+        <v>224</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>76</v>
@@ -8847,7 +8681,7 @@
         <v>76</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>290</v>
+        <v>76</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>76</v>
@@ -8859,13 +8693,11 @@
         <v>76</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="X64" s="2"/>
       <c r="Y64" t="s" s="2">
-        <v>76</v>
+        <v>294</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>76</v>
@@ -8889,7 +8721,7 @@
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>76</v>
@@ -8898,21 +8730,21 @@
         <v>98</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8923,10 +8755,10 @@
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>76</v>
@@ -8935,13 +8767,13 @@
         <v>87</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>235</v>
+        <v>299</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8998,7 +8830,7 @@
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>76</v>
@@ -9007,21 +8839,21 @@
         <v>98</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>76</v>
+        <v>304</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9032,29 +8864,27 @@
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>76</v>
@@ -9103,13 +8933,13 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>76</v>
@@ -9118,19 +8948,19 @@
         <v>98</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>310</v>
+        <v>76</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
         <v>311</v>
       </c>
@@ -9140,13 +8970,13 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>76</v>
@@ -9163,18 +8993,14 @@
       <c r="L67" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="M67" s="2"/>
+      <c r="N67" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="N67" t="s" s="2">
-        <v>316</v>
-      </c>
       <c r="O67" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="P67" t="s" s="2">
-        <v>317</v>
-      </c>
+      <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
         <v>76</v>
       </c>
@@ -9224,7 +9050,7 @@
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>76</v>
@@ -9233,21 +9059,21 @@
         <v>98</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>318</v>
+        <v>76</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>320</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9261,27 +9087,25 @@
         <v>86</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>235</v>
+        <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>322</v>
+        <v>100</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>323</v>
+        <v>101</v>
       </c>
       <c r="M68" s="2"/>
-      <c r="N68" t="s" s="2">
-        <v>324</v>
-      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>76</v>
       </c>
@@ -9329,7 +9153,7 @@
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>321</v>
+        <v>102</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9341,55 +9165,57 @@
         <v>76</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>325</v>
+        <v>76</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>326</v>
+        <v>103</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>327</v>
+        <v>76</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>328</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>330</v>
+        <v>106</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>331</v>
+        <v>107</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>76</v>
@@ -9426,37 +9252,37 @@
         <v>76</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>329</v>
+        <v>113</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>333</v>
+        <v>103</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>76</v>
@@ -9465,11 +9291,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="B70" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="C70" t="s" s="2">
         <v>76</v>
       </c>
@@ -9478,25 +9306,25 @@
         <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>227</v>
+        <v>320</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9547,25 +9375,25 @@
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>334</v>
+        <v>113</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>337</v>
+        <v>76</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>76</v>
@@ -9574,11 +9402,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="B71" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="C71" t="s" s="2">
         <v>76</v>
       </c>
@@ -9590,29 +9420,25 @@
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>224</v>
+        <v>324</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>76</v>
       </c>
@@ -9636,11 +9462,13 @@
         <v>76</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="X71" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y71" t="s" s="2">
-        <v>343</v>
+        <v>76</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>76</v>
@@ -9658,7 +9486,7 @@
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>338</v>
+        <v>113</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -9670,24 +9498,24 @@
         <v>76</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>344</v>
+        <v>76</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>345</v>
+        <v>76</v>
       </c>
       <c r="AL71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9695,13 +9523,13 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>76</v>
@@ -9710,13 +9538,13 @@
         <v>87</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9745,9 +9573,11 @@
       <c r="W72" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="X72" s="2"/>
+      <c r="X72" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="Y72" t="s" s="2">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>76</v>
@@ -9765,36 +9595,36 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>76</v>
+        <v>333</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9802,13 +9632,13 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>76</v>
@@ -9817,16 +9647,20 @@
         <v>87</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>354</v>
+        <v>88</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>76</v>
       </c>
@@ -9874,13 +9708,13 @@
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>76</v>
@@ -9889,21 +9723,21 @@
         <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>76</v>
+        <v>343</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>359</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9914,28 +9748,32 @@
         <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H74" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H74" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="I74" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>361</v>
+        <v>162</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>76</v>
       </c>
@@ -9959,13 +9797,13 @@
         <v>76</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>76</v>
+        <v>351</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>76</v>
+        <v>352</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>76</v>
@@ -9983,13 +9821,13 @@
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>76</v>
@@ -9998,21 +9836,21 @@
         <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>76</v>
+        <v>356</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10023,10 +9861,10 @@
         <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>76</v>
@@ -10035,18 +9873,18 @@
         <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>76</v>
       </c>
@@ -10094,13 +9932,13 @@
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>76</v>
@@ -10109,10 +9947,10 @@
         <v>98</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>371</v>
+        <v>103</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>76</v>
@@ -10123,7 +9961,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10143,16 +9981,16 @@
         <v>76</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>88</v>
+        <v>235</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>100</v>
+        <v>364</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>101</v>
+        <v>365</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10203,7 +10041,7 @@
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>102</v>
+        <v>366</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10215,16 +10053,16 @@
         <v>76</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>103</v>
+        <v>367</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>76</v>
+        <v>368</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>76</v>
@@ -10232,11 +10070,11 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10255,16 +10093,16 @@
         <v>76</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>106</v>
+        <v>370</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>107</v>
+        <v>371</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>108</v>
+        <v>372</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>109</v>
+        <v>373</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10302,19 +10140,19 @@
         <v>76</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AC77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>113</v>
+        <v>369</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -10326,13 +10164,13 @@
         <v>76</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>103</v>
+        <v>374</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>76</v>
@@ -10341,13 +10179,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
         <v>76</v>
       </c>
@@ -10356,10 +10192,10 @@
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>76</v>
@@ -10368,13 +10204,13 @@
         <v>76</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>375</v>
+        <v>88</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>376</v>
+        <v>100</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>377</v>
+        <v>101</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10425,25 +10261,25 @@
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>76</v>
@@ -10452,15 +10288,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10470,7 +10304,7 @@
         <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>76</v>
@@ -10479,15 +10313,17 @@
         <v>76</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>379</v>
+        <v>106</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>380</v>
+        <v>107</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>76</v>
@@ -10554,7 +10390,7 @@
         <v>76</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>76</v>
@@ -10563,41 +10399,45 @@
         <v>76</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>76</v>
+        <v>378</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H80" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>76</v>
       </c>
@@ -10621,13 +10461,13 @@
         <v>76</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>232</v>
+        <v>76</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>385</v>
+        <v>76</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>386</v>
+        <v>76</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>76</v>
@@ -10645,36 +10485,36 @@
         <v>76</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>388</v>
+        <v>76</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>389</v>
+        <v>76</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>390</v>
+        <v>185</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>391</v>
+        <v>76</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10682,35 +10522,31 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>76</v>
       </c>
@@ -10734,13 +10570,13 @@
         <v>76</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>76</v>
+        <v>385</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>76</v>
+        <v>386</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>76</v>
@@ -10758,13 +10594,13 @@
         <v>76</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>76</v>
@@ -10773,13 +10609,13 @@
         <v>98</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>398</v>
+        <v>76</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>294</v>
+        <v>76</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>76</v>
@@ -10787,7 +10623,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10804,26 +10640,22 @@
         <v>76</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>162</v>
+        <v>257</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>76</v>
       </c>
@@ -10847,13 +10679,13 @@
         <v>76</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>232</v>
+        <v>76</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>405</v>
+        <v>76</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>406</v>
+        <v>76</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>76</v>
@@ -10871,7 +10703,7 @@
         <v>76</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -10886,21 +10718,21 @@
         <v>98</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>408</v>
+        <v>76</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>409</v>
+        <v>374</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>410</v>
+        <v>76</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10914,25 +10746,25 @@
         <v>86</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -10982,7 +10814,7 @@
         <v>76</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>416</v>
+        <v>390</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -10997,10 +10829,10 @@
         <v>98</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>103</v>
+        <v>374</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>76</v>
@@ -11011,7 +10843,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11031,18 +10863,20 @@
         <v>76</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>235</v>
+        <v>391</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>418</v>
+        <v>396</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M84" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>76</v>
@@ -11091,7 +10925,7 @@
         <v>76</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11106,21 +10940,21 @@
         <v>98</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>421</v>
+        <v>374</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>301</v>
+        <v>76</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11134,7 +10968,7 @@
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>76</v>
@@ -11143,17 +10977,15 @@
         <v>76</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>423</v>
+        <v>370</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>76</v>
@@ -11202,7 +11034,7 @@
         <v>76</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -11220,7 +11052,7 @@
         <v>76</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>427</v>
+        <v>374</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>76</v>
@@ -11231,7 +11063,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11340,7 +11172,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>429</v>
+        <v>402</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11451,11 +11283,11 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>430</v>
+        <v>403</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>431</v>
+        <v>378</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11477,10 +11309,10 @@
         <v>106</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>432</v>
+        <v>379</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>433</v>
+        <v>380</v>
       </c>
       <c r="M88" t="s" s="2">
         <v>109</v>
@@ -11535,7 +11367,7 @@
         <v>76</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>434</v>
+        <v>381</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -11562,9 +11394,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>435</v>
+        <v>404</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11572,13 +11404,13 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>76</v>
@@ -11587,13 +11419,13 @@
         <v>76</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>436</v>
+        <v>405</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>437</v>
+        <v>406</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11620,13 +11452,13 @@
         <v>76</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>232</v>
+        <v>76</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>438</v>
+        <v>76</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>439</v>
+        <v>76</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>76</v>
@@ -11644,13 +11476,13 @@
         <v>76</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>435</v>
+        <v>404</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>76</v>
@@ -11662,7 +11494,7 @@
         <v>76</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>427</v>
+        <v>103</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>76</v>
@@ -11671,9 +11503,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11687,7 +11519,7 @@
         <v>86</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>76</v>
@@ -11696,13 +11528,13 @@
         <v>76</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>312</v>
+        <v>235</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>441</v>
+        <v>408</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>442</v>
+        <v>409</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11753,7 +11585,7 @@
         <v>76</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -11771,7 +11603,7 @@
         <v>76</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>427</v>
+        <v>374</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>76</v>
@@ -11780,9 +11612,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>443</v>
+        <v>410</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11796,7 +11628,7 @@
         <v>86</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>76</v>
@@ -11805,17 +11637,15 @@
         <v>76</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>444</v>
+        <v>88</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>445</v>
+        <v>411</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>76</v>
@@ -11864,7 +11694,7 @@
         <v>76</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>443</v>
+        <v>410</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -11882,7 +11712,7 @@
         <v>76</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>427</v>
+        <v>374</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>76</v>
@@ -11893,7 +11723,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>448</v>
+        <v>413</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11904,7 +11734,7 @@
         <v>77</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>87</v>
@@ -11916,18 +11746,18 @@
         <v>76</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="M92" s="2"/>
+      <c r="N92" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="O92" t="s" s="2">
         <v>76</v>
       </c>
@@ -11975,13 +11805,13 @@
         <v>76</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>448</v>
+        <v>413</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>76</v>
@@ -11993,897 +11823,17 @@
         <v>76</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>427</v>
+        <v>103</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
-      <c r="O93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="95" hidden="true">
-      <c r="A95" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
-      <c r="O97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F98" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
-      <c r="O98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="C99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F99" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
-      <c r="O99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="M100" s="2"/>
-      <c r="N100" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM100" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM100">
+  <autoFilter ref="A1:AM92">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12893,7 +11843,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI99">
+  <conditionalFormatting sqref="A2:AI91">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-NatlDirEx-PractitionerRole.xlsx
+++ b/output/StructureDefinition-NatlDirEx-PractitionerRole.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$100</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3221" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3502" uniqueCount="471">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T18:56:51-04:00</t>
+    <t>2022-06-17T09:52:28-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -823,6 +823,172 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
+    <t>PractitionerRole.identifier.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier.type</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>./IdentifierType</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>./Value</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier.period</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>./IdentifierIssuingAuthority</t>
+  </si>
+  <si>
     <t>PractitionerRole.active</t>
   </si>
   <si>
@@ -1098,9 +1264,6 @@
     <t>./url</t>
   </si>
   <si>
-    <t>./Value</t>
-  </si>
-  <si>
     <t>PractitionerRole.telecom.use</t>
   </si>
   <si>
@@ -1166,9 +1329,6 @@
   </si>
   <si>
     <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
-  </si>
-  <si>
-    <t>./StartDate and ./EndDate</t>
   </si>
   <si>
     <t>PractitionerRole.availableTime</t>
@@ -1642,7 +1802,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM92"/>
+  <dimension ref="A1:AM100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1687,7 +1847,7 @@
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="84.140625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="75.79296875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="99.6875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="186.2890625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
@@ -8090,7 +8250,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>86</v>
@@ -8102,29 +8262,23 @@
         <v>76</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>257</v>
+        <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>258</v>
+        <v>100</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="P59" t="s" s="2">
-        <v>262</v>
-      </c>
+      <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
         <v>76</v>
       </c>
@@ -8168,7 +8322,7 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>256</v>
+        <v>102</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8180,35 +8334,35 @@
         <v>76</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>263</v>
+        <v>76</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>264</v>
+        <v>103</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>265</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>76</v>
@@ -8217,21 +8371,21 @@
         <v>76</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>235</v>
+        <v>106</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>267</v>
+        <v>107</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>76</v>
       </c>
@@ -8267,48 +8421,48 @@
         <v>76</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AC60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>266</v>
+        <v>113</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>270</v>
+        <v>76</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>271</v>
+        <v>103</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>272</v>
+        <v>76</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>273</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8316,31 +8470,35 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H61" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>275</v>
+        <v>162</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>76</v>
       </c>
@@ -8364,13 +8522,13 @@
         <v>76</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>76</v>
+        <v>264</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>76</v>
@@ -8388,7 +8546,7 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8403,10 +8561,10 @@
         <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>76</v>
@@ -8417,7 +8575,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8425,7 +8583,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>86</v>
@@ -8440,16 +8598,20 @@
         <v>87</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>76</v>
       </c>
@@ -8473,13 +8635,13 @@
         <v>76</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>76</v>
+        <v>272</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>76</v>
+        <v>273</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>76</v>
@@ -8497,7 +8659,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -8512,10 +8674,10 @@
         <v>98</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>76</v>
+        <v>275</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>76</v>
@@ -8524,9 +8686,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8537,10 +8699,10 @@
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>76</v>
@@ -8549,19 +8711,19 @@
         <v>87</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>224</v>
+        <v>128</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>76</v>
@@ -8574,7 +8736,7 @@
         <v>76</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>76</v>
+        <v>281</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>76</v>
@@ -8586,11 +8748,13 @@
         <v>76</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="X63" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y63" t="s" s="2">
-        <v>288</v>
+        <v>76</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>76</v>
@@ -8608,13 +8772,13 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>76</v>
@@ -8623,13 +8787,13 @@
         <v>98</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>76</v>
@@ -8637,7 +8801,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8648,7 +8812,7 @@
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>87</v>
@@ -8660,15 +8824,17 @@
         <v>87</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>224</v>
+        <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>76</v>
@@ -8681,7 +8847,7 @@
         <v>76</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>76</v>
+        <v>290</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>76</v>
@@ -8693,11 +8859,13 @@
         <v>76</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="X64" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y64" t="s" s="2">
-        <v>294</v>
+        <v>76</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>76</v>
@@ -8721,7 +8889,7 @@
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>76</v>
@@ -8730,21 +8898,21 @@
         <v>98</v>
       </c>
       <c r="AJ64" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8755,10 +8923,10 @@
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>76</v>
@@ -8767,13 +8935,13 @@
         <v>87</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>299</v>
+        <v>235</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8830,7 +8998,7 @@
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>76</v>
@@ -8839,21 +9007,21 @@
         <v>98</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>76</v>
+        <v>299</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>304</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8864,7 +9032,7 @@
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>87</v>
@@ -8873,18 +9041,20 @@
         <v>76</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="K66" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>76</v>
@@ -8933,13 +9103,13 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>76</v>
@@ -8948,13 +9118,13 @@
         <v>98</v>
       </c>
       <c r="AJ66" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AK66" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AK66" t="s" s="2">
+      <c r="AL66" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>76</v>
@@ -8970,10 +9140,10 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>76</v>
@@ -8993,14 +9163,18 @@
       <c r="L67" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="M67" s="2"/>
+      <c r="M67" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="N67" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="P67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="Q67" t="s" s="2">
         <v>76</v>
       </c>
@@ -9050,7 +9224,7 @@
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>76</v>
@@ -9059,21 +9233,21 @@
         <v>98</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>76</v>
+        <v>318</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>76</v>
+        <v>320</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9093,19 +9267,21 @@
         <v>76</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>88</v>
+        <v>235</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>100</v>
+        <v>322</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>101</v>
+        <v>323</v>
       </c>
       <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>76</v>
       </c>
@@ -9153,7 +9329,7 @@
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>102</v>
+        <v>321</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9165,57 +9341,55 @@
         <v>76</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>76</v>
+        <v>325</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>103</v>
+        <v>326</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>76</v>
+        <v>327</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>76</v>
+        <v>328</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>106</v>
+        <v>330</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>107</v>
+        <v>331</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>76</v>
@@ -9252,37 +9426,37 @@
         <v>76</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>113</v>
+        <v>329</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>103</v>
+        <v>333</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>76</v>
@@ -9291,40 +9465,38 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>320</v>
+        <v>227</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9375,25 +9547,25 @@
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>113</v>
+        <v>334</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>76</v>
+        <v>337</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>76</v>
@@ -9402,13 +9574,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
         <v>76</v>
       </c>
@@ -9420,25 +9590,29 @@
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>324</v>
+        <v>224</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>76</v>
       </c>
@@ -9462,13 +9636,11 @@
         <v>76</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="X71" s="2"/>
       <c r="Y71" t="s" s="2">
-        <v>76</v>
+        <v>343</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>76</v>
@@ -9486,7 +9658,7 @@
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>113</v>
+        <v>338</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -9498,24 +9670,24 @@
         <v>76</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>76</v>
+        <v>344</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>76</v>
+        <v>345</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>76</v>
+        <v>327</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9523,13 +9695,13 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>76</v>
@@ -9538,13 +9710,13 @@
         <v>87</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>162</v>
+        <v>224</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9573,11 +9745,9 @@
       <c r="W72" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="X72" t="s" s="2">
-        <v>330</v>
-      </c>
+      <c r="X72" s="2"/>
       <c r="Y72" t="s" s="2">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>76</v>
@@ -9595,36 +9765,36 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>333</v>
+        <v>76</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9632,13 +9802,13 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>76</v>
@@ -9647,20 +9817,16 @@
         <v>87</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>88</v>
+        <v>354</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>76</v>
       </c>
@@ -9708,13 +9874,13 @@
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>76</v>
@@ -9723,21 +9889,21 @@
         <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>343</v>
+        <v>76</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>76</v>
+        <v>359</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9748,32 +9914,28 @@
         <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>162</v>
+        <v>361</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>76</v>
       </c>
@@ -9797,13 +9959,13 @@
         <v>76</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>232</v>
+        <v>76</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>351</v>
+        <v>76</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>352</v>
+        <v>76</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>76</v>
@@ -9821,13 +9983,13 @@
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>76</v>
@@ -9836,13 +9998,13 @@
         <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>356</v>
+        <v>76</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>76</v>
@@ -9850,7 +10012,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9861,7 +10023,7 @@
         <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>76</v>
@@ -9873,18 +10035,18 @@
         <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>76</v>
       </c>
@@ -9932,13 +10094,13 @@
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>76</v>
@@ -9947,10 +10109,10 @@
         <v>98</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>103</v>
+        <v>371</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>76</v>
@@ -9961,7 +10123,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9981,16 +10143,16 @@
         <v>76</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>235</v>
+        <v>88</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>364</v>
+        <v>100</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>365</v>
+        <v>101</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10041,7 +10203,7 @@
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>366</v>
+        <v>102</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10053,16 +10215,16 @@
         <v>76</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>367</v>
+        <v>103</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>368</v>
+        <v>76</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>76</v>
@@ -10070,11 +10232,11 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10093,16 +10255,16 @@
         <v>76</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>370</v>
+        <v>106</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>371</v>
+        <v>107</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>372</v>
+        <v>108</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>373</v>
+        <v>109</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10140,19 +10302,19 @@
         <v>76</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AC77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>369</v>
+        <v>113</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -10164,13 +10326,13 @@
         <v>76</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>374</v>
+        <v>103</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>76</v>
@@ -10181,9 +10343,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="B78" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="C78" t="s" s="2">
         <v>76</v>
       </c>
@@ -10192,7 +10356,7 @@
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>76</v>
@@ -10204,13 +10368,13 @@
         <v>76</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>88</v>
+        <v>375</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>100</v>
+        <v>376</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>101</v>
+        <v>377</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10261,25 +10425,25 @@
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>76</v>
@@ -10290,11 +10454,13 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="B79" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="C79" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10313,17 +10479,15 @@
         <v>76</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>106</v>
+        <v>379</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>107</v>
+        <v>380</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>76</v>
@@ -10390,7 +10554,7 @@
         <v>76</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>76</v>
@@ -10401,43 +10565,39 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>378</v>
+        <v>76</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>76</v>
       </c>
@@ -10461,13 +10621,13 @@
         <v>76</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>76</v>
+        <v>385</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>76</v>
+        <v>386</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>76</v>
@@ -10485,28 +10645,28 @@
         <v>76</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>76</v>
+        <v>388</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>76</v>
+        <v>389</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>185</v>
+        <v>390</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>76</v>
+        <v>391</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>76</v>
@@ -10514,7 +10674,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10522,10 +10682,10 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>76</v>
@@ -10534,19 +10694,23 @@
         <v>76</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>76</v>
       </c>
@@ -10570,13 +10734,13 @@
         <v>76</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>232</v>
+        <v>76</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>385</v>
+        <v>76</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>386</v>
+        <v>76</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>76</v>
@@ -10594,13 +10758,13 @@
         <v>76</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>76</v>
@@ -10609,13 +10773,13 @@
         <v>98</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>76</v>
+        <v>398</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>76</v>
+        <v>294</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>76</v>
@@ -10623,7 +10787,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10640,22 +10804,26 @@
         <v>76</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>257</v>
+        <v>162</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>76</v>
       </c>
@@ -10679,13 +10847,13 @@
         <v>76</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>76</v>
+        <v>405</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>76</v>
+        <v>406</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>76</v>
@@ -10703,7 +10871,7 @@
         <v>76</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -10718,13 +10886,13 @@
         <v>98</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>76</v>
+        <v>408</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>374</v>
+        <v>409</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>76</v>
+        <v>410</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>76</v>
@@ -10732,7 +10900,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10752,19 +10920,19 @@
         <v>76</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>393</v>
+        <v>414</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -10814,7 +10982,7 @@
         <v>76</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -10829,10 +10997,10 @@
         <v>98</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>374</v>
+        <v>103</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>76</v>
@@ -10843,7 +11011,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10863,20 +11031,18 @@
         <v>76</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>391</v>
+        <v>235</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>396</v>
+        <v>418</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>76</v>
@@ -10925,7 +11091,7 @@
         <v>76</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -10940,13 +11106,13 @@
         <v>98</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>374</v>
+        <v>421</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>76</v>
+        <v>301</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>76</v>
@@ -10954,7 +11120,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10977,15 +11143,17 @@
         <v>76</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>370</v>
+        <v>423</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M85" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>76</v>
@@ -11034,7 +11202,7 @@
         <v>76</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -11052,7 +11220,7 @@
         <v>76</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>374</v>
+        <v>427</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>76</v>
@@ -11063,7 +11231,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>401</v>
+        <v>428</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11172,7 +11340,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11283,11 +11451,11 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>403</v>
+        <v>430</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>378</v>
+        <v>431</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11309,10 +11477,10 @@
         <v>106</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>379</v>
+        <v>432</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>380</v>
+        <v>433</v>
       </c>
       <c r="M88" t="s" s="2">
         <v>109</v>
@@ -11367,7 +11535,7 @@
         <v>76</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>381</v>
+        <v>434</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -11396,7 +11564,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>404</v>
+        <v>435</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11404,10 +11572,10 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>76</v>
@@ -11419,13 +11587,13 @@
         <v>76</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>405</v>
+        <v>436</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>406</v>
+        <v>437</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11452,13 +11620,13 @@
         <v>76</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>76</v>
+        <v>438</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>76</v>
+        <v>439</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>76</v>
@@ -11476,13 +11644,13 @@
         <v>76</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>404</v>
+        <v>435</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>76</v>
@@ -11494,7 +11662,7 @@
         <v>76</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>103</v>
+        <v>427</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>76</v>
@@ -11505,7 +11673,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>407</v>
+        <v>440</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11528,13 +11696,13 @@
         <v>76</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>235</v>
+        <v>312</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>408</v>
+        <v>441</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>409</v>
+        <v>442</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11585,7 +11753,7 @@
         <v>76</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>407</v>
+        <v>440</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -11603,7 +11771,7 @@
         <v>76</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>374</v>
+        <v>427</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>76</v>
@@ -11614,7 +11782,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>410</v>
+        <v>443</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11637,15 +11805,17 @@
         <v>76</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>88</v>
+        <v>444</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>411</v>
+        <v>445</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M91" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>76</v>
@@ -11694,7 +11864,7 @@
         <v>76</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>410</v>
+        <v>443</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -11712,7 +11882,7 @@
         <v>76</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>374</v>
+        <v>427</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>76</v>
@@ -11721,9 +11891,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>413</v>
+        <v>448</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11734,10 +11904,10 @@
         <v>77</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>76</v>
@@ -11746,18 +11916,18 @@
         <v>76</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>414</v>
+        <v>444</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M92" s="2"/>
-      <c r="N92" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>76</v>
       </c>
@@ -11805,13 +11975,13 @@
         <v>76</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>413</v>
+        <v>448</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>76</v>
@@ -11823,17 +11993,897 @@
         <v>76</v>
       </c>
       <c r="AK92" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK94" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AL92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM92" t="s" s="2">
+      <c r="AL94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M100" s="2"/>
+      <c r="N100" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM100" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM92">
+  <autoFilter ref="A1:AM100">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11843,7 +12893,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI91">
+  <conditionalFormatting sqref="A2:AI99">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-NatlDirEx-PractitionerRole.xlsx
+++ b/output/StructureDefinition-NatlDirEx-PractitionerRole.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3502" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2267" uniqueCount="436">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>1.0.0-ballot1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-17T09:52:28-04:00</t>
+    <t>2022-07-25T12:57:48-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -655,412 +655,303 @@
     <t>A reference to the healthcare provider insurance networks (NatlDirEndpointQry-Network) the practitioner participates in through their role</t>
   </si>
   <si>
-    <t>qualification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/qualification}
-</t>
-  </si>
-  <si>
-    <t>Qualification</t>
-  </si>
-  <si>
-    <t>An extension to add qualifications for an organization (e.g. accreditation) or practitionerRole (e.g. registered to prescribe controlled substances).</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.extension</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>identifier</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.extension.id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.extension.extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.extension.value[x]</t>
+    <t>PractitionerRole.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier</t>
   </si>
   <si>
     <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>code</t>
+    <t>Business Identifiers that are specific to a role/location</t>
+  </si>
+  <si>
+    <t>Business Identifiers that are specific to a role/location.</t>
+  </si>
+  <si>
+    <t>Often, specific identities are assigned for the agent.</t>
+  </si>
+  <si>
+    <t>PRD-7 (or XCN.1)</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>./Identifiers</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier.type</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/IndividualSpecialtyAndDegreeLicenseCertificateVS</t>
-  </si>
-  <si>
-    <t>issuer</t>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>./IdentifierType</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>./Value</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>./IdentifierIssuingAuthority</t>
+  </si>
+  <si>
+    <t>PractitionerRole.active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Whether this practitioner role record is in active use</t>
+  </si>
+  <si>
+    <t>Whether this practitioner role record is in active use.</t>
+  </si>
+  <si>
+    <t>If this value is false, you may refer to the period to see when the role was in active use. If there is no period specified, no inference can be made about when it was active.</t>
+  </si>
+  <si>
+    <t>Need to be able to mark a practitioner role record as not to be used because it was created in error, or otherwise no longer in active use.</t>
+  </si>
+  <si>
+    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+  </si>
+  <si>
+    <t>STF-7</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>PractitionerRole.period</t>
+  </si>
+  <si>
+    <t>The period during which the practitioner is authorized to perform in these role(s)</t>
+  </si>
+  <si>
+    <t>The period during which the person is authorized to act as a practitioner in these role(s) for the organization.</t>
+  </si>
+  <si>
+    <t>Even after the agencies is revoked, the fact that it existed must still be recorded.</t>
+  </si>
+  <si>
+    <t>PRD-8/9 / PRA-5.4</t>
+  </si>
+  <si>
+    <t>.performance[@typeCode &lt;= 'PPRF'].ActDefinitionOrEvent.effectiveTime</t>
+  </si>
+  <si>
+    <t>(ServD maps Practitioners and Organizations via another entity, so this concept is not available)</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>PractitionerRole.practitioner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Practitioner)
+</t>
+  </si>
+  <si>
+    <t>Practitioner that is able to provide the defined services for the organization</t>
+  </si>
+  <si>
+    <t>Practitioner that is able to provide the defined services for the organization.</t>
+  </si>
+  <si>
+    <t>.player</t>
+  </si>
+  <si>
+    <t>PractitionerRole.organization</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
 </t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>valueCode</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/QualificationStatusVS</t>
-  </si>
-  <si>
-    <t>period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>whereValid</t>
-  </si>
-  <si>
-    <t>CodeableConcept
-Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Location)</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-usps-state</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/qualification</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x]</t>
-  </si>
-  <si>
-    <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
-  </si>
-  <si>
-    <t>PractitionerRole.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier</t>
-  </si>
-  <si>
-    <t>Business Identifiers that are specific to a role/location</t>
-  </si>
-  <si>
-    <t>Business Identifiers that are specific to a role/location.</t>
-  </si>
-  <si>
-    <t>Often, specific identities are assigned for the agent.</t>
-  </si>
-  <si>
-    <t>PRD-7 (or XCN.1)</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>./Identifiers</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier.id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier.extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier.type</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>./IdentifierType</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>./Value</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier.period</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>./StartDate and ./EndDate</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>./IdentifierIssuingAuthority</t>
-  </si>
-  <si>
-    <t>PractitionerRole.active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>Whether this practitioner role record is in active use</t>
-  </si>
-  <si>
-    <t>Whether this practitioner role record is in active use.</t>
-  </si>
-  <si>
-    <t>If this value is false, you may refer to the period to see when the role was in active use. If there is no period specified, no inference can be made about when it was active.</t>
-  </si>
-  <si>
-    <t>Need to be able to mark a practitioner role record as not to be used because it was created in error, or otherwise no longer in active use.</t>
-  </si>
-  <si>
-    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
-  </si>
-  <si>
-    <t>STF-7</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>PractitionerRole.period</t>
-  </si>
-  <si>
-    <t>The period during which the practitioner is authorized to perform in these role(s)</t>
-  </si>
-  <si>
-    <t>The period during which the person is authorized to act as a practitioner in these role(s) for the organization.</t>
-  </si>
-  <si>
-    <t>Even after the agencies is revoked, the fact that it existed must still be recorded.</t>
-  </si>
-  <si>
-    <t>PRD-8/9 / PRA-5.4</t>
-  </si>
-  <si>
-    <t>.performance[@typeCode &lt;= 'PPRF'].ActDefinitionOrEvent.effectiveTime</t>
-  </si>
-  <si>
-    <t>(ServD maps Practitioners and Organizations via another entity, so this concept is not available)</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>PractitionerRole.practitioner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Practitioner)
-</t>
-  </si>
-  <si>
-    <t>Practitioner that is able to provide the defined services for the organization</t>
-  </si>
-  <si>
-    <t>Practitioner that is able to provide the defined services for the organization.</t>
-  </si>
-  <si>
-    <t>.player</t>
-  </si>
-  <si>
-    <t>PractitionerRole.organization</t>
   </si>
   <si>
     <t>Organization where the roles are available</t>
@@ -1802,7 +1693,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM100"/>
+  <dimension ref="A1:AM64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1811,10 +1702,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.65234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="25.140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.14453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
@@ -1830,24 +1721,24 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="93.23828125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.77734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="78.05859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="45.65234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="45.65625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="84.140625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="99.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="99.69140625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="186.2890625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
@@ -4072,13 +3963,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="B21" t="s" s="2">
         <v>203</v>
       </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4091,22 +3980,26 @@
         <v>76</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>76</v>
       </c>
@@ -4154,7 +4047,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4163,7 +4056,7 @@
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>114</v>
@@ -4172,7 +4065,7 @@
         <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
@@ -4181,9 +4074,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4194,28 +4087,30 @@
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>209</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>101</v>
+        <v>211</v>
       </c>
       <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="N22" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>76</v>
       </c>
@@ -4263,36 +4158,36 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>102</v>
+        <v>208</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>76</v>
+        <v>213</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>103</v>
+        <v>214</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>76</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4300,10 +4195,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>76</v>
@@ -4315,13 +4210,13 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4360,37 +4255,37 @@
         <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -4399,15 +4294,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4417,7 +4310,7 @@
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
@@ -4429,12 +4322,14 @@
         <v>106</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>187</v>
+        <v>107</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>76</v>
@@ -4471,16 +4366,16 @@
         <v>76</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AE24" t="s" s="2">
         <v>113</v>
@@ -4501,7 +4396,7 @@
         <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -4512,7 +4407,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4529,22 +4424,26 @@
         <v>76</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>76</v>
       </c>
@@ -4568,13 +4467,13 @@
         <v>76</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>76</v>
@@ -4592,7 +4491,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>102</v>
+        <v>227</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4604,13 +4503,13 @@
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>103</v>
+        <v>228</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4619,9 +4518,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4632,28 +4531,32 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>106</v>
+        <v>230</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>187</v>
+        <v>231</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4677,49 +4580,49 @@
         <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>76</v>
+        <v>236</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>113</v>
+        <v>237</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4730,7 +4633,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4738,7 +4641,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>86</v>
@@ -4750,33 +4653,35 @@
         <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>128</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>76</v>
@@ -4812,10 +4717,10 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>86</v>
@@ -4824,24 +4729,24 @@
         <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>185</v>
+        <v>247</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4849,30 +4754,32 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>219</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>76</v>
@@ -4885,7 +4792,7 @@
         <v>76</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>76</v>
+        <v>253</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>76</v>
@@ -4921,7 +4828,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4936,52 +4843,50 @@
         <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>76</v>
+        <v>255</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>185</v>
+        <v>256</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="J29" t="s" s="2">
-        <v>106</v>
+        <v>259</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>187</v>
+        <v>260</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>188</v>
+        <v>261</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5032,36 +4937,36 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>113</v>
+        <v>262</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>76</v>
+        <v>264</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>76</v>
+        <v>265</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>211</v>
+        <v>266</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5075,24 +4980,26 @@
         <v>86</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>267</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>100</v>
+        <v>268</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>76</v>
@@ -5141,7 +5048,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>102</v>
+        <v>271</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5153,16 +5060,16 @@
         <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>76</v>
+        <v>272</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>103</v>
+        <v>273</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>76</v>
+        <v>274</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
@@ -5170,7 +5077,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>212</v>
+        <v>275</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5178,10 +5085,10 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>76</v>
@@ -5190,23 +5097,29 @@
         <v>76</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>106</v>
+        <v>276</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>187</v>
+        <v>277</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="P31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="Q31" t="s" s="2">
         <v>76</v>
       </c>
@@ -5238,48 +5151,48 @@
         <v>76</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>113</v>
+        <v>275</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>76</v>
+        <v>282</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>76</v>
+        <v>283</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>76</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>213</v>
+        <v>285</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5287,7 +5200,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>86</v>
@@ -5299,27 +5212,27 @@
         <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>128</v>
+        <v>259</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>214</v>
+        <v>286</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>223</v>
+        <v>76</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>76</v>
@@ -5361,10 +5274,10 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>217</v>
+        <v>285</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>86</v>
@@ -5373,24 +5286,24 @@
         <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>185</v>
+        <v>290</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>76</v>
+        <v>291</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>218</v>
+        <v>293</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5404,22 +5317,22 @@
         <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>224</v>
+        <v>294</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>220</v>
+        <v>295</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>221</v>
+        <v>296</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5446,11 +5359,13 @@
         <v>76</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="X33" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y33" t="s" s="2">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>76</v>
@@ -5468,7 +5383,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>222</v>
+        <v>293</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5486,7 +5401,7 @@
         <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>185</v>
+        <v>297</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -5497,17 +5412,15 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>86</v>
@@ -5519,16 +5432,16 @@
         <v>76</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>106</v>
+        <v>299</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>187</v>
+        <v>300</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>188</v>
+        <v>301</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5579,25 +5492,25 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>113</v>
+        <v>298</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>76</v>
+        <v>302</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
@@ -5606,9 +5519,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>211</v>
+        <v>303</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5619,28 +5532,32 @@
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>100</v>
+        <v>304</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5664,13 +5581,11 @@
         <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>76</v>
+        <v>308</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>76</v>
@@ -5688,36 +5603,36 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>102</v>
+        <v>303</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>76</v>
+        <v>309</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>103</v>
+        <v>310</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>76</v>
+        <v>291</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>212</v>
+        <v>311</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5728,25 +5643,25 @@
         <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>106</v>
+        <v>230</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>187</v>
+        <v>312</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>188</v>
+        <v>313</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5773,31 +5688,29 @@
         <v>76</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="X36" s="2"/>
       <c r="Y36" t="s" s="2">
-        <v>76</v>
+        <v>314</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>113</v>
+        <v>311</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5809,24 +5722,24 @@
         <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>76</v>
+        <v>316</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>76</v>
+        <v>317</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>213</v>
+        <v>318</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5834,39 +5747,37 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>128</v>
+        <v>319</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>214</v>
+        <v>320</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>76</v>
@@ -5908,36 +5819,36 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>217</v>
+        <v>318</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>185</v>
+        <v>322</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>76</v>
+        <v>323</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>76</v>
+        <v>324</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>218</v>
+        <v>325</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5945,13 +5856,13 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
@@ -5960,13 +5871,13 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>227</v>
+        <v>326</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>220</v>
+        <v>327</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>221</v>
+        <v>328</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6017,13 +5928,13 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>222</v>
+        <v>325</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>76</v>
@@ -6032,10 +5943,10 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>76</v>
+        <v>329</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>185</v>
+        <v>330</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
@@ -6044,43 +5955,43 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="J39" t="s" s="2">
-        <v>106</v>
+        <v>332</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>187</v>
+        <v>333</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>188</v>
+        <v>334</v>
       </c>
       <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+      <c r="N39" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>76</v>
       </c>
@@ -6128,7 +6039,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>113</v>
+        <v>331</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6140,13 +6051,13 @@
         <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>76</v>
+        <v>336</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
@@ -6157,7 +6068,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>211</v>
+        <v>337</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6266,18 +6177,18 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>212</v>
+        <v>338</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>76</v>
@@ -6292,12 +6203,14 @@
         <v>106</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>187</v>
+        <v>107</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>76</v>
@@ -6364,7 +6277,7 @@
         <v>76</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
@@ -6375,18 +6288,20 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B42" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="C42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>76</v>
@@ -6398,24 +6313,22 @@
         <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>128</v>
+        <v>340</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>214</v>
+        <v>341</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="R42" t="s" s="2">
         <v>76</v>
@@ -6457,25 +6370,25 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>217</v>
+        <v>113</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
@@ -6486,18 +6399,20 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="B43" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="C43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>76</v>
@@ -6509,13 +6424,13 @@
         <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>162</v>
+        <v>344</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>220</v>
+        <v>345</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>221</v>
+        <v>346</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6554,35 +6469,37 @@
         <v>76</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AB43" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>230</v>
+        <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>222</v>
+        <v>113</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
@@ -6593,11 +6510,9 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6615,16 +6530,16 @@
         <v>76</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>162</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>220</v>
+        <v>348</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>221</v>
+        <v>349</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6633,7 +6548,7 @@
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="R44" t="s" s="2">
         <v>76</v>
@@ -6651,11 +6566,13 @@
         <v>76</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="X44" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="Y44" t="s" s="2">
-        <v>233</v>
+        <v>351</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>76</v>
@@ -6673,7 +6590,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>222</v>
+        <v>352</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6682,61 +6599,63 @@
         <v>86</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>76</v>
+        <v>353</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>76</v>
+        <v>354</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>185</v>
+        <v>355</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>76</v>
+        <v>356</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="J45" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>187</v>
+        <v>358</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>76</v>
       </c>
@@ -6784,28 +6703,28 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>113</v>
+        <v>362</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>76</v>
+        <v>363</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>76</v>
+        <v>364</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
@@ -6813,7 +6732,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>211</v>
+        <v>365</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6830,22 +6749,26 @@
         <v>76</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>100</v>
+        <v>366</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>76</v>
       </c>
@@ -6869,13 +6792,13 @@
         <v>76</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>76</v>
+        <v>370</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>76</v>
+        <v>371</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>76</v>
@@ -6893,7 +6816,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>102</v>
+        <v>372</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -6905,16 +6828,16 @@
         <v>76</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>76</v>
+        <v>373</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>103</v>
+        <v>374</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>76</v>
+        <v>375</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
@@ -6922,7 +6845,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>212</v>
+        <v>376</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6933,7 +6856,7 @@
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>76</v>
@@ -6942,18 +6865,20 @@
         <v>76</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>106</v>
+        <v>377</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>187</v>
+        <v>378</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>76</v>
@@ -6990,37 +6915,37 @@
         <v>76</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>113</v>
+        <v>381</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
@@ -7031,7 +6956,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>213</v>
+        <v>382</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7039,7 +6964,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>86</v>
@@ -7051,27 +6976,25 @@
         <v>76</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>128</v>
+        <v>259</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>214</v>
+        <v>383</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>234</v>
+        <v>76</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>76</v>
@@ -7113,10 +7036,10 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>217</v>
+        <v>385</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>86</v>
@@ -7125,16 +7048,16 @@
         <v>76</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>185</v>
+        <v>386</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>76</v>
+        <v>265</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>76</v>
@@ -7142,7 +7065,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>218</v>
+        <v>387</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7150,10 +7073,10 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>76</v>
@@ -7165,15 +7088,17 @@
         <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>235</v>
+        <v>388</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>220</v>
+        <v>389</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>76</v>
@@ -7222,13 +7147,13 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>222</v>
+        <v>387</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>76</v>
@@ -7240,7 +7165,7 @@
         <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>185</v>
+        <v>392</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
@@ -7249,13 +7174,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
         <v>76</v>
       </c>
@@ -7264,10 +7187,10 @@
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>76</v>
@@ -7276,13 +7199,13 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7333,25 +7256,25 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
@@ -7362,18 +7285,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>211</v>
+        <v>394</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>76</v>
@@ -7385,15 +7308,17 @@
         <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>76</v>
@@ -7442,19 +7367,19 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>76</v>
@@ -7471,39 +7396,43 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>212</v>
+        <v>395</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>76</v>
+        <v>396</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>106</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>187</v>
+        <v>397</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>76</v>
       </c>
@@ -7539,19 +7468,19 @@
         <v>76</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>113</v>
+        <v>399</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7569,7 +7498,7 @@
         <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -7580,7 +7509,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>213</v>
+        <v>400</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7588,10 +7517,10 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>76</v>
@@ -7603,24 +7532,22 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>214</v>
+        <v>401</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>236</v>
+        <v>76</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>76</v>
@@ -7638,13 +7565,13 @@
         <v>76</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>76</v>
+        <v>403</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>76</v>
+        <v>404</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>76</v>
@@ -7662,25 +7589,25 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>217</v>
+        <v>400</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>185</v>
+        <v>392</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
@@ -7691,7 +7618,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>218</v>
+        <v>405</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7699,7 +7626,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>86</v>
@@ -7714,13 +7641,13 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>237</v>
+        <v>276</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>220</v>
+        <v>406</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>221</v>
+        <v>407</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7747,11 +7674,13 @@
         <v>76</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="X54" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y54" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>76</v>
@@ -7769,7 +7698,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>222</v>
+        <v>405</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -7787,7 +7716,7 @@
         <v>76</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>185</v>
+        <v>392</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
@@ -7798,7 +7727,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>239</v>
+        <v>408</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7806,7 +7735,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>86</v>
@@ -7821,16 +7750,16 @@
         <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>128</v>
+        <v>409</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>214</v>
+        <v>410</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>215</v>
+        <v>411</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>216</v>
+        <v>412</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7838,7 +7767,7 @@
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>240</v>
+        <v>76</v>
       </c>
       <c r="R55" t="s" s="2">
         <v>76</v>
@@ -7880,10 +7809,10 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>217</v>
+        <v>408</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>86</v>
@@ -7892,13 +7821,13 @@
         <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>185</v>
+        <v>392</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>76</v>
@@ -7909,7 +7838,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>241</v>
+        <v>413</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7920,7 +7849,7 @@
         <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>76</v>
@@ -7932,15 +7861,17 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>242</v>
+        <v>409</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>220</v>
+        <v>414</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>76</v>
@@ -7989,7 +7920,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>222</v>
+        <v>413</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8007,7 +7938,7 @@
         <v>76</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>185</v>
+        <v>392</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>76</v>
@@ -8018,11 +7949,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>243</v>
+        <v>416</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8035,26 +7966,22 @@
         <v>76</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>106</v>
+        <v>388</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>244</v>
+        <v>417</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>76</v>
       </c>
@@ -8102,7 +8029,7 @@
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>247</v>
+        <v>416</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8114,13 +8041,13 @@
         <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>185</v>
+        <v>392</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>76</v>
@@ -8129,9 +8056,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>248</v>
+        <v>419</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8142,30 +8069,28 @@
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>219</v>
+        <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>249</v>
+        <v>100</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="M58" s="2"/>
-      <c r="N58" t="s" s="2">
-        <v>251</v>
-      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>76</v>
       </c>
@@ -8213,47 +8138,47 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>248</v>
+        <v>102</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>252</v>
+        <v>76</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>253</v>
+        <v>103</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>254</v>
+        <v>76</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>255</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>256</v>
+        <v>420</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>76</v>
@@ -8265,15 +8190,17 @@
         <v>76</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>76</v>
@@ -8322,19 +8249,19 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>76</v>
@@ -8351,11 +8278,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>257</v>
+        <v>421</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>105</v>
+        <v>396</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8368,24 +8295,26 @@
         <v>76</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>106</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>107</v>
+        <v>397</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>108</v>
+        <v>398</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="N60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>76</v>
       </c>
@@ -8421,19 +8350,19 @@
         <v>76</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AC60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>113</v>
+        <v>399</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8451,7 +8380,7 @@
         <v>76</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>103</v>
+        <v>185</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>76</v>
@@ -8462,7 +8391,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>258</v>
+        <v>422</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8470,7 +8399,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>86</v>
@@ -8479,26 +8408,22 @@
         <v>76</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>259</v>
+        <v>423</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>76</v>
       </c>
@@ -8522,13 +8447,13 @@
         <v>76</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>232</v>
+        <v>76</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>263</v>
+        <v>76</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>264</v>
+        <v>76</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>76</v>
@@ -8546,10 +8471,10 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>265</v>
+        <v>422</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>86</v>
@@ -8561,10 +8486,10 @@
         <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>266</v>
+        <v>103</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>76</v>
@@ -8573,9 +8498,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>267</v>
+        <v>425</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8589,29 +8514,25 @@
         <v>86</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>268</v>
+        <v>426</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>76</v>
       </c>
@@ -8635,13 +8556,13 @@
         <v>76</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>272</v>
+        <v>76</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>273</v>
+        <v>76</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>76</v>
@@ -8659,7 +8580,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>274</v>
+        <v>425</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -8674,10 +8595,10 @@
         <v>98</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>275</v>
+        <v>76</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>266</v>
+        <v>392</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>76</v>
@@ -8688,7 +8609,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>276</v>
+        <v>428</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8708,23 +8629,19 @@
         <v>76</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>277</v>
+        <v>429</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>76</v>
       </c>
@@ -8736,7 +8653,7 @@
         <v>76</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>281</v>
+        <v>76</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>76</v>
@@ -8772,7 +8689,7 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>282</v>
+        <v>428</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -8787,13 +8704,13 @@
         <v>98</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>284</v>
+        <v>392</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>285</v>
+        <v>76</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>76</v>
@@ -8801,7 +8718,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>286</v>
+        <v>431</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8812,7 +8729,7 @@
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>87</v>
@@ -8821,21 +8738,21 @@
         <v>76</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>88</v>
+        <v>432</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>287</v>
+        <v>433</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>76</v>
       </c>
@@ -8847,7 +8764,7 @@
         <v>76</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>290</v>
+        <v>76</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>76</v>
@@ -8883,13 +8800,13 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>291</v>
+        <v>431</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>76</v>
@@ -8898,3992 +8815,20 @@
         <v>98</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>293</v>
+        <v>103</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>294</v>
+        <v>76</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P67" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="Q67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="X71" s="2"/>
-      <c r="Y71" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="X72" s="2"/>
-      <c r="Y72" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="C78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="C79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
-      <c r="O86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N92" s="2"/>
-      <c r="O92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
-      <c r="O93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="95" hidden="true">
-      <c r="A95" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="97" hidden="true">
-      <c r="A97" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
-      <c r="O97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="98" hidden="true">
-      <c r="A98" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F98" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
-      <c r="O98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="C99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F99" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
-      <c r="O99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="M100" s="2"/>
-      <c r="N100" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM100" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM100">
+  <autoFilter ref="A1:AM64">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12893,7 +8838,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI99">
+  <conditionalFormatting sqref="A2:AI63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-NatlDirEx-PractitionerRole.xlsx
+++ b/output/StructureDefinition-NatlDirEx-PractitionerRole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T12:57:48-04:00</t>
+    <t>2022-07-25T14:11:25-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-PractitionerRole.xlsx
+++ b/output/StructureDefinition-NatlDirEx-PractitionerRole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T11:08:50-04:00</t>
+    <t>2022-07-27T12:20:48-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-PractitionerRole.xlsx
+++ b/output/StructureDefinition-NatlDirEx-PractitionerRole.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot1</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T12:20:48-04:00</t>
+    <t>2022-08-01T16:22:39-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-PractitionerRole.xlsx
+++ b/output/StructureDefinition-NatlDirEx-PractitionerRole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T16:22:39-04:00</t>
+    <t>2022-08-03T13:02:02-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-PractitionerRole.xlsx
+++ b/output/StructureDefinition-NatlDirEx-PractitionerRole.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T13:02:02-04:00</t>
+    <t>2022-08-03T17:01:06-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-PractitionerRole.xlsx
+++ b/output/StructureDefinition-NatlDirEx-PractitionerRole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T17:01:06-04:00</t>
+    <t>2022-08-04T11:49:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-PractitionerRole.xlsx
+++ b/output/StructureDefinition-NatlDirEx-PractitionerRole.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDirEx-PractitionerRole</t>
+    <t>http://hl7.org/fhir/us/directory-exchange/StructureDefinition/NatlDirEx-PractitionerRole</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T11:49:08-04:00</t>
+    <t>2022-08-05T09:45:36-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -116,7 +116,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-PractitionerRole</t>
+    <t>http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-PractitionerRole</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -612,7 +612,7 @@
     <t>rating</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/rating}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/rating}
 </t>
   </si>
   <si>
@@ -626,7 +626,7 @@
     <t>newpatients</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/newpatients}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/newpatients}
 </t>
   </si>
   <si>
@@ -645,7 +645,7 @@
     <t>network-reference</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/network-reference}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/network-reference}
 </t>
   </si>
   <si>
@@ -934,7 +934,7 @@
     <t>PractitionerRole.practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Practitioner)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-Practitioner)
 </t>
   </si>
   <si>
@@ -950,7 +950,7 @@
     <t>PractitionerRole.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
 </t>
   </si>
   <si>
@@ -978,7 +978,7 @@
     <t>Need to know what authority the practitioner has - what can they do?</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/PractitionerRoleVS</t>
+    <t>http://hl7.org/fhir/us/directory-query/ValueSet/PractitionerRoleVS</t>
   </si>
   <si>
     <t>PRD-1 / STF-18  / PRA-3  / PRT-4  / ROL-3 / ORC-12 / OBR-16 / PV1-7 / PV1-8 / PV1-9 / PV1-17</t>
@@ -996,7 +996,7 @@
     <t>Specific specialty of the practitioner.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/IndividualAndGroupSpecialtiesVS</t>
+    <t>http://hl7.org/fhir/us/directory-query/ValueSet/IndividualAndGroupSpecialtiesVS</t>
   </si>
   <si>
     <t>PRA-5</t>
@@ -1011,7 +1011,7 @@
     <t>PractitionerRole.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-Location)
 </t>
   </si>
   <si>
@@ -1033,7 +1033,7 @@
     <t>PractitionerRole.healthcareService</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-HealthcareService)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-HealthcareService)
 </t>
   </si>
   <si>
@@ -1077,7 +1077,7 @@
     <t>contactpoint-availabletime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/contactpoint-availabletime}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/contactpoint-availabletime}
 </t>
   </si>
   <si>
@@ -1090,7 +1090,7 @@
     <t>via-intermediary</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/via-intermediary}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/via-intermediary}
 </t>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
     <t>PractitionerRole.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Endpoint)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-Endpoint)
 </t>
   </si>
   <si>
@@ -1726,7 +1726,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.77734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="78.05859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="74.28515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-NatlDirEx-PractitionerRole.xlsx
+++ b/output/StructureDefinition-NatlDirEx-PractitionerRole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T09:45:36-04:00</t>
+    <t>2022-08-05T12:05:17-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-PractitionerRole.xlsx
+++ b/output/StructureDefinition-NatlDirEx-PractitionerRole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T14:11:25-04:00</t>
+    <t>2022-07-25T13:43:16-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,8 +84,8 @@
     <t>Description</t>
   </si>
   <si>
-    <t>PractionerRole describes details about a provider, which can be a practitioner or an organization. When the provider is a practitioner, 
-there may be a relationship to an organization. A provider renders services to patients at a location. When the provider is a practitioner, there may also 
+    <t>PractionerRole describes details about a provider, which can be a practitioner or an organization. When the provider is a practitioner, 
+there may be a relationship to an organization. A provider renders services to patients at a location. When the provider is a practitioner, there may also 
 be a relationship to an organization. Practitioner participation in healthcare provider insurance networks may be direct or through their role at an organization.</t>
   </si>
   <si>
@@ -1702,45 +1702,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.65625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="25.14453125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.69140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.96484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.1484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.06640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="85.26953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="85.4765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.77734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="78.05859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="45.65625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.3984375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="78.59375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="44.69140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="84.140625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="99.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="186.2890625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="91.0390625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="99.8984375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="185.46875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-NatlDirEx-PractitionerRole.xlsx
+++ b/output/StructureDefinition-NatlDirEx-PractitionerRole.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDirEx-PractitionerRole</t>
+    <t>http://hl7.org/fhir/us/directory-exchange/StructureDefinition/NatlDirEx-PractitionerRole</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot1</t>
+    <t>1.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T13:43:16-05:00</t>
+    <t>2022-09-21T22:39:35-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -116,7 +116,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-PractitionerRole</t>
+    <t>http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-PractitionerRole</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -612,7 +612,7 @@
     <t>rating</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/rating}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/rating}
 </t>
   </si>
   <si>
@@ -626,7 +626,7 @@
     <t>newpatients</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/newpatients}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/newpatients}
 </t>
   </si>
   <si>
@@ -645,7 +645,7 @@
     <t>network-reference</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/network-reference}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/network-reference}
 </t>
   </si>
   <si>
@@ -934,7 +934,7 @@
     <t>PractitionerRole.practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Practitioner)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-Practitioner)
 </t>
   </si>
   <si>
@@ -950,7 +950,7 @@
     <t>PractitionerRole.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
 </t>
   </si>
   <si>
@@ -978,7 +978,7 @@
     <t>Need to know what authority the practitioner has - what can they do?</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/PractitionerRoleVS</t>
+    <t>http://hl7.org/fhir/us/directory-query/ValueSet/PractitionerRoleVS</t>
   </si>
   <si>
     <t>PRD-1 / STF-18  / PRA-3  / PRT-4  / ROL-3 / ORC-12 / OBR-16 / PV1-7 / PV1-8 / PV1-9 / PV1-17</t>
@@ -996,7 +996,7 @@
     <t>Specific specialty of the practitioner.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/IndividualAndGroupSpecialtiesVS</t>
+    <t>http://hl7.org/fhir/us/directory-query/ValueSet/IndividualAndGroupSpecialtiesVS</t>
   </si>
   <si>
     <t>PRA-5</t>
@@ -1011,7 +1011,7 @@
     <t>PractitionerRole.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-Location)
 </t>
   </si>
   <si>
@@ -1033,7 +1033,7 @@
     <t>PractitionerRole.healthcareService</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-HealthcareService)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-HealthcareService)
 </t>
   </si>
   <si>
@@ -1077,7 +1077,7 @@
     <t>contactpoint-availabletime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/contactpoint-availabletime}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/contactpoint-availabletime}
 </t>
   </si>
   <si>
@@ -1090,7 +1090,7 @@
     <t>via-intermediary</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/via-intermediary}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/via-intermediary}
 </t>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
     <t>PractitionerRole.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Endpoint)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-Endpoint)
 </t>
   </si>
   <si>
@@ -1726,7 +1726,7 @@
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.9609375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="78.59375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="74.44140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.84375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
